--- a/Datas flexibilizações_30_09_20.xlsx
+++ b/Datas flexibilizações_30_09_20.xlsx
@@ -29,9 +29,6 @@
     <t>UF</t>
   </si>
   <si>
-    <t>Data reabert. Paralisação econômica</t>
-  </si>
-  <si>
     <t>Acre</t>
   </si>
   <si>
@@ -116,10 +113,13 @@
     <t>Data fim quarentena grupos risco</t>
   </si>
   <si>
-    <t>Data de retorno das aulas presenciais</t>
-  </si>
-  <si>
     <t>Data de permissão de eventos</t>
+  </si>
+  <si>
+    <t>Retorno aulas presenciais</t>
+  </si>
+  <si>
+    <t>Reabertura econômica</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,21 +545,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>44018</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>44015</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>43998</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>43983</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>44036</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>43983</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>43977</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>43943</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>44026</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>43976</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>44036</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>44028</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>43960</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>43983</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>43997</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>44027</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>43983</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>44018</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>43988</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>44013</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>43962</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
         <v>43965</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>44032</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>43934</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>43983</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4">
         <v>44011</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4">
         <v>43990</v>

--- a/Datas flexibilizações_30_09_20.xlsx
+++ b/Datas flexibilizações_30_09_20.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,9 @@
       <c r="B9" s="4">
         <v>43943</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>44117</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
@@ -756,7 +758,7 @@
         <v>44018</v>
       </c>
       <c r="C19" s="4">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -768,7 +770,9 @@
       <c r="B20" s="4">
         <v>43988</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>44123</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -836,7 +840,9 @@
       <c r="B26" s="4">
         <v>43983</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <v>44111</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
@@ -858,7 +864,9 @@
       <c r="B28" s="4">
         <v>43990</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>44104</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>

--- a/Datas flexibilizações_30_09_20.xlsx
+++ b/Datas flexibilizações_30_09_20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Flexibilizações" sheetId="1" r:id="rId1"/>
@@ -110,16 +110,16 @@
     <t>Tocantins</t>
   </si>
   <si>
-    <t>Data fim quarentena grupos risco</t>
-  </si>
-  <si>
-    <t>Data de permissão de eventos</t>
-  </si>
-  <si>
     <t>Retorno aulas presenciais</t>
   </si>
   <si>
     <t>Reabertura econômica</t>
+  </si>
+  <si>
+    <t>Permissão eventos</t>
+  </si>
+  <si>
+    <t>Fim quarentena grupos de risco</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,20 +152,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,12 +167,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,36 +201,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,12 +217,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +512,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,334 +525,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>44018</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>44015</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>44105</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>43998</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>43983</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>44053</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="1">
+        <v>44075</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44032</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>44036</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>44076</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>43983</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>44088</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>43977</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>44110</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>43943</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>44117</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="1">
+        <v>44095</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>44026</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>43976</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>44071</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>44036</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>44064</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>44028</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>43960</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>44077</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>43983</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>43997</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>43997</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>44027</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>43983</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
+        <v>44130</v>
+      </c>
+      <c r="D18" s="1">
         <v>44082</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>44018</v>
       </c>
-      <c r="C19" s="4">
-        <v>44094</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="1">
+        <v>44124</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44082</v>
+      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>43988</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>44123</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="1">
+        <v>44111</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>44013</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>44095</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1">
         <v>43962</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>44082</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>43965</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="1">
         <v>44032</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <v>43934</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="1">
+        <v>44130</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44092</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="1">
         <v>43983</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>44111</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="1">
+        <v>44039</v>
+      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <v>44011</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>44095</v>
+      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="1">
         <v>43990</v>
       </c>
-      <c r="C28" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Datas flexibilizações_30_09_20.xlsx
+++ b/Datas flexibilizações_30_09_20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ALEX\IMB\2021\BI_COVID_IPEA_UFG_IMB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="10890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Flexibilizações" sheetId="1" r:id="rId1"/>
@@ -138,24 +138,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -167,18 +164,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -201,34 +198,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +556,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,72 +575,74 @@
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44018</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>43989</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="1">
-        <v>44112</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>44053</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44015</v>
+        <v>43897</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>44105</v>
+        <v>43840</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>43998</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>44058</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43983</v>
+        <v>43836</v>
       </c>
       <c r="C5" s="1">
-        <v>44053</v>
+        <v>44112</v>
       </c>
       <c r="D5" s="1">
-        <v>44075</v>
+        <v>43839</v>
       </c>
       <c r="E5" s="1">
         <v>44032</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -604,25 +650,27 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>44076</v>
+        <v>43870</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>43983</v>
+        <v>43836</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>44088</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>43995</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -630,19 +678,19 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>44110</v>
+        <v>43992</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="C9" s="1">
-        <v>44117</v>
+        <v>43961</v>
       </c>
       <c r="D9" s="1">
         <v>44095</v>
@@ -650,18 +698,20 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>44026</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>43932</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -674,7 +724,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -687,42 +737,46 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>44028</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>44043</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>43960</v>
+        <v>44079</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>44077</v>
+        <v>43899</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>43983</v>
+        <v>43836</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>44090</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -735,48 +789,50 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>44027</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>43932</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>43983</v>
+        <v>43836</v>
       </c>
       <c r="C18" s="1">
         <v>44130</v>
       </c>
       <c r="D18" s="1">
-        <v>44082</v>
+        <v>44052</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>44018</v>
+        <v>43989</v>
       </c>
       <c r="C19" s="1">
         <v>44124</v>
       </c>
       <c r="D19" s="1">
-        <v>44082</v>
+        <v>44052</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -786,49 +842,55 @@
         <v>44123</v>
       </c>
       <c r="D20" s="1">
-        <v>44111</v>
+        <v>44022</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44013</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>43837</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43961</v>
+      </c>
       <c r="D21" s="1">
         <v>44095</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>43962</v>
+        <v>44140</v>
       </c>
       <c r="C22" s="1">
-        <v>44082</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>44052</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44131</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>43965</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>44126</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -839,7 +901,7 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -854,11 +916,11 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>43983</v>
+        <v>43836</v>
       </c>
       <c r="C26" s="1">
         <v>44111</v>
@@ -869,24 +931,26 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>44011</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>44152</v>
+      </c>
       <c r="D27" s="1">
         <v>44095</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>43990</v>
+        <v>44049</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/Datas flexibilizações_30_09_20.xlsx
+++ b/Datas flexibilizações_30_09_20.xlsx
@@ -127,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mmm"/>
+    <numFmt numFmtId="167" formatCode="[$-416]d\-mmm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,45 +137,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FFDBDBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,81 +169,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,407 +460,408 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>43989</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>44112</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44015</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>44105</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43998</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>44058</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C5" s="2">
         <v>44053</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43897</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>43840</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43998</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>44058</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43836</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44112</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43839</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <v>44075</v>
+      </c>
+      <c r="E5" s="2">
         <v>44032</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>44036</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>43870</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>44076</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>43836</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="B7" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>44088</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>43977</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>43992</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>44110</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>43941</v>
       </c>
-      <c r="C9" s="1">
-        <v>43961</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="2">
+        <v>44109</v>
+      </c>
+      <c r="D9" s="2">
         <v>44095</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>44026</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>43932</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>44139</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>43976</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>44071</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>44036</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>44064</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>44028</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>44043</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>44079</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>43899</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="B14" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>44077</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>43836</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
+      <c r="B15" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>44090</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>43997</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>43997</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>44027</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>43932</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>44139</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>43836</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C18" s="2">
         <v>44130</v>
       </c>
-      <c r="D18" s="1">
-        <v>44052</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="D18" s="2">
+        <v>44082</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>43989</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="2">
+        <v>44018</v>
+      </c>
+      <c r="C19" s="2">
         <v>44124</v>
       </c>
-      <c r="D19" s="1">
-        <v>44052</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="D19" s="2">
+        <v>44082</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>43988</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>44123</v>
       </c>
-      <c r="D20" s="1">
-        <v>44022</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="D20" s="2">
+        <v>44111</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>43837</v>
-      </c>
-      <c r="C21" s="1">
-        <v>43961</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44109</v>
+      </c>
+      <c r="D21" s="2">
         <v>44095</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>44140</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44052</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2">
+        <v>43962</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44082</v>
+      </c>
+      <c r="D22" s="2">
         <v>44131</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>43965</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
         <v>44126</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>44032</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>43934</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>44130</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>44092</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>43836</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C26" s="2">
         <v>44111</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>44039</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>44011</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>44152</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>44095</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>44049</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="2">
+        <v>43990</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>